--- a/data/Tracker.xlsx
+++ b/data/Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Desktop\TRACKER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\dsicenter_excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D50B9-D8BA-4C26-8480-2001D8D50D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37811-2CA5-4006-837B-2F75325A49F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="6420" windowWidth="24150" windowHeight="8460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DataValidation" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$L$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$L$22</definedName>
     <definedName name="Z_2014114F_87C9_470A_B526_DBE45F7CB6A5_.wvu.FilterData" localSheetId="0" hidden="1">Tracker!$A$1:$L$1</definedName>
     <definedName name="Z_E94D1327_6D1E_4162_85E6_D223AFF51286_.wvu.FilterData" localSheetId="0" hidden="1">Tracker!$A$1:$L$1</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="325">
   <si>
     <t>Week</t>
   </si>
@@ -150,9 +150,6 @@
     <t>22/11/2023</t>
   </si>
   <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
     <t>INC005327128</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>ARFL</t>
   </si>
   <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
     <t>INC005310604</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>William POWER</t>
   </si>
   <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
     <t>INC005293443</t>
   </si>
   <si>
@@ -216,18 +207,12 @@
     <t>2N21</t>
   </si>
   <si>
-    <t>19/10/2023</t>
-  </si>
-  <si>
     <t>INC005284206</t>
   </si>
   <si>
     <t>06/11/2023</t>
   </si>
   <si>
-    <t>20/09/2023</t>
-  </si>
-  <si>
     <t>INC005142241</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>2M57</t>
   </si>
   <si>
-    <t>09/08/2023</t>
-  </si>
-  <si>
     <t>SCTASK2319426</t>
   </si>
   <si>
@@ -285,102 +267,30 @@
     <t>SCTASK2312203</t>
   </si>
   <si>
-    <t>SCTASK2311678</t>
-  </si>
-  <si>
-    <t>SCTASK2311142</t>
-  </si>
-  <si>
-    <t>15.0 m050_32b</t>
-  </si>
-  <si>
-    <t>SCTASK2310945</t>
-  </si>
-  <si>
     <t>Google Earth Pro</t>
   </si>
   <si>
-    <t>7.3_64b</t>
-  </si>
-  <si>
     <t>2M38</t>
   </si>
   <si>
-    <t>04/09/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2309584</t>
-  </si>
-  <si>
     <t>KICAD</t>
   </si>
   <si>
-    <t>5.1.4_64b</t>
-  </si>
-  <si>
-    <t>09/04/2023</t>
-  </si>
-  <si>
     <t>A001</t>
   </si>
   <si>
-    <t>SCTASK2309144</t>
-  </si>
-  <si>
-    <t>SCTASK2308627</t>
-  </si>
-  <si>
     <t>Beyond Compare</t>
   </si>
   <si>
-    <t>4.3.2.2_64b</t>
-  </si>
-  <si>
     <t>2M16</t>
   </si>
   <si>
-    <t>SCTASK2308548</t>
-  </si>
-  <si>
     <t>MinGW</t>
   </si>
   <si>
-    <t>6.3.0_64b</t>
-  </si>
-  <si>
-    <t>Closed Skipped</t>
-  </si>
-  <si>
     <t>2N29</t>
   </si>
   <si>
-    <t>SCTASK2308465</t>
-  </si>
-  <si>
-    <t>SCTASK2308434</t>
-  </si>
-  <si>
-    <t>SCTASK2308334</t>
-  </si>
-  <si>
-    <t>prime 7.0.0_64b</t>
-  </si>
-  <si>
-    <t>SCTASK2306634</t>
-  </si>
-  <si>
-    <t>SCTASK2306396</t>
-  </si>
-  <si>
-    <t>01/09/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2303556</t>
-  </si>
-  <si>
-    <t>09/01/2023</t>
-  </si>
-  <si>
     <t>INC005059217</t>
   </si>
   <si>
@@ -393,45 +303,12 @@
     <t>INC005058388</t>
   </si>
   <si>
-    <t>31/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2302323</t>
-  </si>
-  <si>
-    <t>SCTASK2301619</t>
-  </si>
-  <si>
     <t>Hex Editor Neo</t>
   </si>
   <si>
-    <t>6.31_64b</t>
-  </si>
-  <si>
     <t>2N13</t>
   </si>
   <si>
-    <t>SCTASK2301618</t>
-  </si>
-  <si>
-    <t>SCTASK2301587</t>
-  </si>
-  <si>
-    <t>SCTASK2300739</t>
-  </si>
-  <si>
-    <t>SCTASK2300715</t>
-  </si>
-  <si>
-    <t>SCTASK2300229</t>
-  </si>
-  <si>
-    <t>Sylvain LARVOR</t>
-  </si>
-  <si>
-    <t>29/08/2023</t>
-  </si>
-  <si>
     <t>CADFix</t>
   </si>
   <si>
@@ -441,301 +318,46 @@
     <t>2M94</t>
   </si>
   <si>
-    <t>28/08/2023</t>
-  </si>
-  <si>
     <t>IBM Rational Rhapsody</t>
   </si>
   <si>
-    <t>9.0.1_32b</t>
-  </si>
-  <si>
     <t>I000</t>
   </si>
   <si>
-    <t>25/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2287602</t>
-  </si>
-  <si>
     <t>Graphviz</t>
   </si>
   <si>
-    <t>2.26.3_32b</t>
-  </si>
-  <si>
     <t>F67D</t>
   </si>
   <si>
-    <t>SCTASK2285737</t>
-  </si>
-  <si>
-    <t>24/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2284978</t>
-  </si>
-  <si>
-    <t>SCTASK2284934</t>
-  </si>
-  <si>
-    <t>SCTASK2284734</t>
-  </si>
-  <si>
-    <t>SCTASK2284621</t>
-  </si>
-  <si>
-    <t>SCTASK2284541</t>
-  </si>
-  <si>
-    <t>SCTASK2283467</t>
-  </si>
-  <si>
     <t>INC005024677</t>
   </si>
   <si>
-    <t>INC005024436</t>
-  </si>
-  <si>
-    <t>INC005023147</t>
-  </si>
-  <si>
-    <t>23/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2280303</t>
-  </si>
-  <si>
     <t>Spaceclaim Direct Modeler</t>
   </si>
   <si>
-    <t>20.1_64b</t>
-  </si>
-  <si>
     <t>2N61</t>
   </si>
   <si>
-    <t>INC005016930</t>
-  </si>
-  <si>
-    <t>22/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2278223</t>
-  </si>
-  <si>
-    <t>SCTASK2277695</t>
-  </si>
-  <si>
-    <t>SCTASK2277686</t>
-  </si>
-  <si>
-    <t>INC005015116</t>
-  </si>
-  <si>
-    <t>21/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2275057</t>
-  </si>
-  <si>
-    <t>SCTASK2274786</t>
-  </si>
-  <si>
-    <t>SCTASK2274417</t>
-  </si>
-  <si>
-    <t>SCTASK2272801</t>
-  </si>
-  <si>
-    <t>INC005008462</t>
-  </si>
-  <si>
-    <t>INC005008102</t>
-  </si>
-  <si>
-    <t>20/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2271611</t>
-  </si>
-  <si>
     <t>Dragon Naturally Speaking</t>
   </si>
   <si>
-    <t>15.7.1_64b</t>
-  </si>
-  <si>
     <t>A002</t>
   </si>
   <si>
-    <t>18/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2270718</t>
-  </si>
-  <si>
-    <t>SCTASK2270688</t>
-  </si>
-  <si>
-    <t>SCTASK2270683</t>
-  </si>
-  <si>
-    <t>SCTASK2270473</t>
-  </si>
-  <si>
-    <t>Vapsxt</t>
-  </si>
-  <si>
-    <t>4.1.1_32b</t>
-  </si>
-  <si>
     <t>2N76</t>
   </si>
   <si>
-    <t>INC005001204</t>
-  </si>
-  <si>
-    <t>17/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2268975</t>
-  </si>
-  <si>
-    <t>SCTASK2268528</t>
-  </si>
-  <si>
-    <t>SCTASK2267732</t>
-  </si>
-  <si>
-    <t>INC004996568</t>
-  </si>
-  <si>
-    <t>INC004996161</t>
-  </si>
-  <si>
-    <t>16/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2266667</t>
-  </si>
-  <si>
-    <t>SCTASK2266664</t>
-  </si>
-  <si>
-    <t>SCTASK2265758</t>
-  </si>
-  <si>
-    <t>SCTASK2265599</t>
-  </si>
-  <si>
-    <t>SCTASK2264957</t>
-  </si>
-  <si>
-    <t>SCTASK2264849</t>
-  </si>
-  <si>
-    <t>15/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2264264</t>
-  </si>
-  <si>
-    <t>14/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2262527</t>
-  </si>
-  <si>
-    <t>INC004986790</t>
-  </si>
-  <si>
     <t>EAR</t>
   </si>
   <si>
     <t>2A69</t>
   </si>
   <si>
-    <t>11/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2261642</t>
-  </si>
-  <si>
-    <t>08/11/2023</t>
-  </si>
-  <si>
-    <t>10/08/2023</t>
-  </si>
-  <si>
-    <t>08/10/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2259299</t>
-  </si>
-  <si>
-    <t>SCTASK2258991</t>
-  </si>
-  <si>
-    <t>INC004977855</t>
-  </si>
-  <si>
-    <t>08/09/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2256740</t>
-  </si>
-  <si>
-    <t>SCTASK2256612</t>
-  </si>
-  <si>
     <t>SEER-MFG</t>
   </si>
   <si>
-    <t>8.2.9_64b</t>
-  </si>
-  <si>
     <t>A006</t>
-  </si>
-  <si>
-    <t>SCTASK2256391</t>
-  </si>
-  <si>
-    <t>INC004974935</t>
-  </si>
-  <si>
-    <t>08/08/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2255117</t>
-  </si>
-  <si>
-    <t>SCTASK2255034</t>
-  </si>
-  <si>
-    <t>SCTASK2254712</t>
-  </si>
-  <si>
-    <t>07/08/2023</t>
-  </si>
-  <si>
-    <t>08/07/2023</t>
-  </si>
-  <si>
-    <t>SCTASK2253159</t>
-  </si>
-  <si>
-    <t>SCTASK2252911</t>
-  </si>
-  <si>
-    <t>INC004966908</t>
-  </si>
-  <si>
-    <t>INC004965685</t>
-  </si>
-  <si>
-    <t>INC004965638</t>
   </si>
   <si>
     <t>Package</t>
@@ -1393,6 +1015,12 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>5,1,1_64b</t>
+  </si>
+  <si>
+    <t>6,4_64b</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1150,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,6 +1202,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1822,6 +1468,18 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2046,11 +1704,11 @@
   <sheetPr codeName="Feuil1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2076,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>443</v>
+        <v>317</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>1</v>
@@ -2091,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>446</v>
+        <v>320</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>6</v>
@@ -2100,19 +1758,19 @@
         <v>4</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>445</v>
+        <v>319</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="M1" s="43" t="s">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="N1" s="43" t="s">
-        <v>447</v>
+        <v>321</v>
       </c>
       <c r="O1" s="45" t="s">
         <v>8</v>
@@ -2120,32 +1778,34 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
-        <v>4</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="50">
+        <v>45868</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
+      <c r="E2" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G2" s="41"/>
       <c r="H2" s="31" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J2" s="46"/>
-      <c r="K2" s="41"/>
+      <c r="K2" s="30">
+        <v>45201</v>
+      </c>
       <c r="L2" s="30"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
@@ -2155,33 +1815,35 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
-        <v>4</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="B3" s="50">
+        <v>45863</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="F3" s="33"/>
       <c r="G3" s="41"/>
       <c r="H3" s="31" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="46"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="30">
+        <v>45166</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
       <c r="O3" s="30" t="s">
@@ -2190,33 +1852,35 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="50">
+        <v>45853</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>24</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F4" s="33"/>
       <c r="G4" s="41"/>
       <c r="H4" s="31" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J4" s="46"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="30">
+        <v>45216</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
       <c r="O4" s="30" t="s">
@@ -2224,172 +1888,176 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="A5" s="23">
+        <v>36</v>
+      </c>
+      <c r="B5" s="21">
+        <v>45843</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>43</v>
+      </c>
+      <c r="B6" s="51">
+        <v>45831</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="33">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="31" t="s">
+      <c r="E6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="21">
+        <v>45831</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>42</v>
+      </c>
+      <c r="B7" s="51">
+        <v>45818</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="21">
+        <v>45818</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>38</v>
+      </c>
+      <c r="B8" s="52">
+        <v>45800</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
-        <v>47</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
-        <v>46</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
-        <v>44</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="30" t="s">
+      <c r="K8" s="21">
+        <v>45800</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
-        <v>43</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="52">
+        <v>45800</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>12</v>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="41"/>
       <c r="H9" s="31" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J9" s="46"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="30" t="s">
-        <v>44</v>
-      </c>
+      <c r="K9" s="21">
+        <v>45800</v>
+      </c>
+      <c r="L9" s="30"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
       <c r="O9" s="30" t="s">
@@ -2398,33 +2066,33 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
-        <v>43</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="52">
+        <v>45792</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>47</v>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="41"/>
       <c r="H10" s="31" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J10" s="46"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="K10" s="21">
+        <v>45792</v>
+      </c>
+      <c r="L10" s="30"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
       <c r="O10" s="30" t="s">
@@ -2432,274 +2100,295 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31">
+      <c r="A11" s="23">
+        <v>34</v>
+      </c>
+      <c r="B11" s="21">
+        <v>45693</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="21">
+        <v>45693</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31">
+        <v>4</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="30"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31">
+        <v>4</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="30"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31">
+        <v>3</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="30"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="33">
+        <v>2022</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="30"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>47</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>46</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
         <v>43</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="31" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>43</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>42</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>38</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>36</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>36</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>36</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>36</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="23" t="s">
+      <c r="I18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="48">
+        <v>45224</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2708,29 +2397,32 @@
         <v>36</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="K19" s="48">
+        <v>45214</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
@@ -2743,29 +2435,32 @@
         <v>36</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="K20" s="30">
+        <v>45199</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
@@ -2778,29 +2473,32 @@
         <v>36</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="K21" s="30">
+        <v>45163</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
@@ -2813,29 +2511,30 @@
         <v>36</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K22"/>
       <c r="L22" s="34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
@@ -2843,2771 +2542,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>36</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>36</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
-        <v>36</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>36</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>36</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>36</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>36</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <v>36</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <v>36</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>35</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31">
-        <v>35</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
-        <v>35</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="46"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31">
-        <v>35</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31">
-        <v>35</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31">
-        <v>35</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I37" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31">
-        <v>35</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I38" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
-        <v>35</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
-        <v>35</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="46"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31">
-        <v>35</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I41" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31">
-        <v>34</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I42" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31">
-        <v>34</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="46"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="31">
-        <v>34</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I44" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="46"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31">
-        <v>34</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" s="46"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
-        <v>34</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
-        <v>34</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
-        <v>34</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
-        <v>34</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="40"/>
-      <c r="H49" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="L49" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
-        <v>34</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
-        <v>34</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="I51" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="34"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
-        <v>34</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="34"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
-        <v>34</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23">
-        <v>34</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23">
-        <v>34</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="40"/>
-      <c r="H55" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I55" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31">
-        <v>34</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="46"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31">
-        <v>34</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J57" s="46"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31">
-        <v>34</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="33"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="46"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31">
-        <v>34</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="41"/>
-      <c r="H59" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
-        <v>34</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31">
-        <v>34</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
-      <c r="O61" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31">
-        <v>34</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="41"/>
-      <c r="H62" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J62" s="46"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31">
-        <v>34</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J63" s="46"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31">
-        <v>34</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="33"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="46"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31">
-        <v>33</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F65" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I65" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="46"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31">
-        <v>33</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="41"/>
-      <c r="H66" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J66" s="46"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31">
-        <v>33</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J67" s="46"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="31">
-        <v>33</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" s="41"/>
-      <c r="H68" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I68" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J68" s="46"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="31">
-        <v>33</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="G69" s="41"/>
-      <c r="H69" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J69" s="46"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="31">
-        <v>33</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I70" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" s="46"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="31">
-        <v>33</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I71" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J71" s="46"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="31">
-        <v>33</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I72" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J72" s="46"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
-      <c r="O72" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="31">
-        <v>33</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I73" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J73" s="46"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31">
-        <v>33</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="33">
-        <v>2019</v>
-      </c>
-      <c r="G74" s="41"/>
-      <c r="H74" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="46"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
-      <c r="O74" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="31">
-        <v>33</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J75" s="46"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
-      <c r="O75" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="31">
-        <v>33</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="41"/>
-      <c r="H76" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J76" s="46"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="M76" s="48"/>
-      <c r="N76" s="48"/>
-      <c r="O76" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23">
-        <v>33</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" t="s">
-        <v>52</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="M77" s="47"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23">
-        <v>33</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" s="40"/>
-      <c r="H78" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L78" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23">
-        <v>33</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" s="40"/>
-      <c r="H79" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L79" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23">
-        <v>33</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F80" t="s">
-        <v>69</v>
-      </c>
-      <c r="G80" s="40"/>
-      <c r="H80" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s">
-        <v>48</v>
-      </c>
-      <c r="L80" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M80" s="47"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="23">
-        <v>33</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F81" t="s">
-        <v>135</v>
-      </c>
-      <c r="G81" s="40"/>
-      <c r="H81" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I81" t="s">
-        <v>48</v>
-      </c>
-      <c r="L81" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M81" s="47"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="23">
-        <v>33</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" t="s">
-        <v>140</v>
-      </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s">
-        <v>48</v>
-      </c>
-      <c r="L82" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="M82" s="47"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23">
-        <v>33</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G83" s="40"/>
-      <c r="H83" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I83" t="s">
-        <v>48</v>
-      </c>
-      <c r="L83" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="23">
-        <v>33</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I84" t="s">
-        <v>48</v>
-      </c>
-      <c r="L84" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23">
-        <v>32</v>
-      </c>
-      <c r="B85" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I85" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="46"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="M85" s="48"/>
-      <c r="N85" s="48"/>
-      <c r="O85" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23">
-        <v>32</v>
-      </c>
-      <c r="B86" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" s="41"/>
-      <c r="H86" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J86" s="46"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
-      <c r="O86" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="31">
-        <v>32</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I87" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J87" s="46"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
-      <c r="O87" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="31">
-        <v>32</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F88" s="31"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I88" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J88" s="46"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="31">
-        <v>32</v>
-      </c>
-      <c r="B89" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="I89" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="46"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="31">
-        <v>32</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F90" t="s">
-        <v>217</v>
-      </c>
-      <c r="G90" s="40"/>
-      <c r="H90" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I90" t="s">
-        <v>14</v>
-      </c>
-      <c r="L90" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31">
-        <v>32</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F91" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I91" t="s">
-        <v>52</v>
-      </c>
-      <c r="L91" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M91" s="47"/>
-      <c r="N91" s="47"/>
-      <c r="O91" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="31">
-        <v>32</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92">
-        <v>2019</v>
-      </c>
-      <c r="G92" s="40"/>
-      <c r="H92" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I92" t="s">
-        <v>48</v>
-      </c>
-      <c r="L92" s="34"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31">
-        <v>32</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" t="s">
-        <v>97</v>
-      </c>
-      <c r="G93" s="40"/>
-      <c r="H93" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I93" t="s">
-        <v>52</v>
-      </c>
-      <c r="L93" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="31">
-        <v>32</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" t="s">
-        <v>83</v>
-      </c>
-      <c r="G94" s="40"/>
-      <c r="H94" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I94" t="s">
-        <v>52</v>
-      </c>
-      <c r="L94" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="31">
-        <v>32</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F95" t="s">
-        <v>97</v>
-      </c>
-      <c r="G95" s="40"/>
-      <c r="H95" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I95" t="s">
-        <v>48</v>
-      </c>
-      <c r="L95" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="31">
-        <v>32</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="40"/>
-      <c r="H96" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="L96" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="M96" s="47"/>
-      <c r="N96" s="47"/>
-      <c r="O96" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="31">
-        <v>32</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="H97" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="I97" t="s">
-        <v>14</v>
-      </c>
-      <c r="L97" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="M97" s="47"/>
-      <c r="N97" s="47"/>
-      <c r="O97" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="23">
-        <v>32</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I98" t="s">
-        <v>48</v>
-      </c>
-      <c r="L98" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="M98" s="47"/>
-      <c r="N98" s="47"/>
-      <c r="O98" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="23">
-        <v>32</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F99"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I99" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" s="34"/>
-      <c r="M99" s="47"/>
-      <c r="N99" s="47"/>
-      <c r="O99" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="23">
-        <v>32</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="I100" t="s">
-        <v>48</v>
-      </c>
-      <c r="L100" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="M100" s="47"/>
-      <c r="N100" s="47"/>
-      <c r="O100" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L100" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O22">
+    <sortCondition descending="1" ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5643,36 +2582,36 @@
         <v>7</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -5681,27 +2620,27 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>263</v>
+        <v>137</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -5710,27 +2649,27 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -5739,56 +2678,56 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>271</v>
+        <v>145</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>273</v>
+        <v>147</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -5797,27 +2736,27 @@
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>277</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -5826,27 +2765,27 @@
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -5855,27 +2794,27 @@
         <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -5884,27 +2823,27 @@
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>286</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -5913,27 +2852,27 @@
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>165</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -5942,27 +2881,27 @@
         <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -5971,27 +2910,27 @@
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -6000,56 +2939,56 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>298</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -6058,27 +2997,27 @@
         <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>302</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -6087,27 +3026,27 @@
         <v>16</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>181</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
@@ -6116,27 +3055,27 @@
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>308</v>
+        <v>182</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -6145,27 +3084,27 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -6174,56 +3113,56 @@
         <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>317</v>
+        <v>191</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -6232,56 +3171,56 @@
         <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>320</v>
+        <v>194</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>321</v>
+        <v>195</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -6290,27 +3229,27 @@
         <v>16</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -6319,56 +3258,56 @@
         <v>16</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>326</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>242</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -6377,56 +3316,56 @@
         <v>16</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>331</v>
+        <v>205</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>333</v>
+        <v>207</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>334</v>
+        <v>208</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -6435,197 +3374,197 @@
         <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>251</v>
+        <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>250</v>
+        <v>124</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>340</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>344</v>
+        <v>218</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>346</v>
+        <v>220</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>347</v>
+        <v>221</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>348</v>
+        <v>222</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
@@ -6634,56 +3573,56 @@
         <v>16</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>352</v>
+        <v>226</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>355</v>
+        <v>229</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -6692,27 +3631,27 @@
         <v>16</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>357</v>
+        <v>231</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -6721,27 +3660,27 @@
         <v>16</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -6750,27 +3689,27 @@
         <v>16</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>361</v>
+        <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
@@ -6779,27 +3718,27 @@
         <v>16</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>364</v>
+        <v>238</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -6808,25 +3747,25 @@
         <v>16</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>365</v>
+        <v>239</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>366</v>
+        <v>240</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
@@ -6835,27 +3774,27 @@
         <v>16</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>367</v>
+        <v>241</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
@@ -6864,53 +3803,53 @@
         <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>369</v>
+        <v>243</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>370</v>
+        <v>244</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>371</v>
+        <v>245</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>262</v>
+        <v>136</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
@@ -6922,24 +3861,24 @@
         <v>16</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
@@ -6951,19 +3890,19 @@
         <v>16</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>373</v>
+        <v>247</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>374</v>
+        <v>248</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>375</v>
+        <v>249</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8998,13 +5937,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="40" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52"/>
+      <c r="A1" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="39" t="s">
-        <v>377</v>
+        <v>251</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>1</v>
@@ -9013,80 +5952,80 @@
         <v>5</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>378</v>
+        <v>252</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>379</v>
+        <v>253</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>383</v>
+        <v>257</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>384</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>385</v>
+        <v>259</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>386</v>
+        <v>260</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>387</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>389</v>
+        <v>263</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>390</v>
+        <v>264</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>392</v>
+        <v>266</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>396</v>
+        <v>270</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>397</v>
+        <v>271</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>398</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -9095,226 +6034,226 @@
         <v>25</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>401</v>
+        <v>275</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>403</v>
+        <v>277</v>
       </c>
       <c r="L3" t="s">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>407</v>
+        <v>281</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>408</v>
+        <v>282</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>410</v>
+        <v>284</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>411</v>
+        <v>285</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>412</v>
+        <v>286</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>414</v>
+        <v>288</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>416</v>
+        <v>290</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>417</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>292</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>293</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>420</v>
+        <v>294</v>
       </c>
       <c r="K5" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="L5" t="s">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>424</v>
+        <v>298</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>425</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>427</v>
+        <v>301</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>428</v>
+        <v>302</v>
       </c>
       <c r="L6" t="s">
-        <v>429</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>430</v>
+        <v>304</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>431</v>
+        <v>305</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>432</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>433</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
-        <v>391</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>435</v>
+        <v>309</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>436</v>
+        <v>310</v>
       </c>
       <c r="D8" t="s">
-        <v>437</v>
+        <v>311</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
-        <v>438</v>
+        <v>312</v>
       </c>
       <c r="L8" t="s">
-        <v>413</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>439</v>
+        <v>313</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>440</v>
+        <v>314</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>441</v>
+        <v>315</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
       <c r="L9" t="s">
-        <v>442</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="L10" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="L11" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
       <c r="L12" t="s">
-        <v>415</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
-        <v>422</v>
+        <v>296</v>
       </c>
       <c r="L13" t="s">
-        <v>427</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">

--- a/data/Tracker.xlsx
+++ b/data/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserghine\Projects React\dsicenter_excel\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE37811-2CA5-4006-837B-2F75325A49F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED74DC0F-8ACD-43B8-98F8-37C064680028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -1336,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,6 +1486,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1707,29 +1716,29 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="1" topLeftCell="A1048553" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1048563" sqref="D1048563"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
     <col min="6" max="6" width="20" style="34" customWidth="1"/>
     <col min="7" max="7" width="20" style="47" customWidth="1"/>
     <col min="8" max="8" width="20" style="34" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="40" customWidth="1"/>
     <col min="12" max="12" width="15" style="35" customWidth="1"/>
     <col min="13" max="14" width="15" style="49" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1776,8 +1785,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57">
         <v>44</v>
       </c>
       <c r="B2" s="50">
@@ -1813,8 +1822,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57">
         <v>43</v>
       </c>
       <c r="B3" s="50">
@@ -1850,8 +1859,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
         <v>43</v>
       </c>
       <c r="B4" s="50">
@@ -1887,8 +1896,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
         <v>36</v>
       </c>
       <c r="B5" s="21">
@@ -1923,8 +1932,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58">
         <v>43</v>
       </c>
       <c r="B6" s="51">
@@ -1959,8 +1968,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58">
         <v>42</v>
       </c>
       <c r="B7" s="51">
@@ -1995,8 +2004,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="58">
         <v>38</v>
       </c>
       <c r="B8" s="52">
@@ -2029,8 +2038,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
         <v>35</v>
       </c>
       <c r="B9" s="52">
@@ -2064,8 +2073,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
         <v>35</v>
       </c>
       <c r="B10" s="52">
@@ -2099,8 +2108,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
         <v>34</v>
       </c>
       <c r="B11" s="21">
@@ -2135,8 +2144,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
@@ -2172,8 +2181,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
         <v>4</v>
       </c>
       <c r="B13" s="53" t="s">
@@ -2209,8 +2218,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
         <v>3</v>
       </c>
       <c r="B14" s="53" t="s">
@@ -2246,8 +2255,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57">
         <v>1</v>
       </c>
       <c r="B15" s="53" t="s">
@@ -2283,8 +2292,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
         <v>47</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -2318,8 +2327,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
         <v>46</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -2355,8 +2364,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
         <v>43</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -2392,8 +2401,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
         <v>36</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -2430,8 +2439,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58">
         <v>36</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -2468,8 +2477,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58">
         <v>36</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -2506,8 +2515,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
         <v>36</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -2563,21 +2572,21 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="200" width="14.42578125" customWidth="1"/>
+    <col min="10" max="200" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>134</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>109</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2702,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>91</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>148</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>151</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>154</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>157</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>160</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>164</v>
       </c>
@@ -2896,7 +2905,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>111</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>100</v>
       </c>
@@ -2954,7 +2963,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>172</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>103</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>59</v>
       </c>
@@ -3041,7 +3050,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>180</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>183</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>186</v>
       </c>
@@ -3128,7 +3137,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>189</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>76</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>95</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>88</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>93</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>201</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>116</v>
       </c>
@@ -3331,7 +3340,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>120</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>78</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>54</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>125</v>
       </c>
@@ -3443,7 +3452,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>214</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
@@ -3501,7 +3510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>82</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>222</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
@@ -3588,7 +3597,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>122</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>105</v>
       </c>
@@ -3646,7 +3655,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>98</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>98</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>235</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>101</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>101</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>114</v>
       </c>
@@ -3818,7 +3827,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>245</v>
       </c>
@@ -3847,7 +3856,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>85</v>
       </c>
@@ -3876,7 +3885,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>85</v>
       </c>
@@ -3905,1958 +3914,1958 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="9"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="9"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="9"/>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="9"/>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="9"/>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="9"/>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
       <c r="H57" s="9"/>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="H58" s="9"/>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
       <c r="H59" s="9"/>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
       <c r="H60" s="9"/>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="H61" s="9"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
       <c r="H62" s="9"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
       <c r="H63" s="9"/>
       <c r="I63" s="10"/>
     </row>
-    <row r="64" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="9"/>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
       <c r="H65" s="9"/>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="9"/>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="9"/>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="9"/>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="9"/>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="9"/>
       <c r="G70" s="10"/>
       <c r="H70" s="9"/>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="9"/>
       <c r="G71" s="10"/>
       <c r="H71" s="9"/>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="9"/>
       <c r="G72" s="10"/>
       <c r="H72" s="9"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="9"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="9"/>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="9"/>
       <c r="G75" s="10"/>
       <c r="H75" s="9"/>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="9"/>
       <c r="G76" s="10"/>
       <c r="H76" s="9"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="9"/>
       <c r="G77" s="10"/>
       <c r="H77" s="9"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
       <c r="H78" s="9"/>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="9"/>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="9"/>
       <c r="G80" s="10"/>
       <c r="H80" s="9"/>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
       <c r="H81" s="9"/>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
       <c r="H82" s="9"/>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="9"/>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="9"/>
       <c r="G84" s="10"/>
       <c r="H84" s="9"/>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
       <c r="H85" s="9"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
       <c r="H86" s="9"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="9"/>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
       <c r="H88" s="9"/>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" s="9"/>
       <c r="G89" s="10"/>
       <c r="H89" s="9"/>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="9"/>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
       <c r="H91" s="9"/>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="9"/>
       <c r="G92" s="10"/>
       <c r="H92" s="9"/>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
       <c r="H93" s="9"/>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="9"/>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
       <c r="H96" s="9"/>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="9"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="9"/>
       <c r="G98" s="10"/>
       <c r="H98" s="9"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="9"/>
       <c r="G99" s="10"/>
       <c r="H99" s="9"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="9"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="9"/>
       <c r="G101" s="10"/>
       <c r="H101" s="9"/>
       <c r="I101" s="10"/>
     </row>
-    <row r="102" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="9"/>
       <c r="G102" s="10"/>
       <c r="H102" s="9"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
       <c r="H103" s="9"/>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="9"/>
       <c r="G104" s="10"/>
       <c r="H104" s="9"/>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="9"/>
       <c r="G105" s="10"/>
       <c r="H105" s="9"/>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="9"/>
       <c r="G106" s="10"/>
       <c r="H106" s="9"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="9"/>
       <c r="G107" s="10"/>
       <c r="H107" s="9"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="9"/>
       <c r="G108" s="10"/>
       <c r="H108" s="9"/>
       <c r="I108" s="10"/>
     </row>
-    <row r="109" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
       <c r="H109" s="9"/>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="9"/>
       <c r="G110" s="10"/>
       <c r="H110" s="9"/>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="9"/>
       <c r="G111" s="10"/>
       <c r="H111" s="9"/>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="9"/>
       <c r="G112" s="10"/>
       <c r="H112" s="9"/>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="9"/>
       <c r="G113" s="10"/>
       <c r="H113" s="9"/>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="9"/>
       <c r="G114" s="10"/>
       <c r="H114" s="9"/>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="9"/>
       <c r="G115" s="10"/>
       <c r="H115" s="9"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F116" s="9"/>
       <c r="G116" s="10"/>
       <c r="H116" s="9"/>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F117" s="9"/>
       <c r="G117" s="10"/>
       <c r="H117" s="9"/>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F118" s="9"/>
       <c r="G118" s="10"/>
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F119" s="9"/>
       <c r="G119" s="10"/>
       <c r="H119" s="9"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="9"/>
       <c r="G120" s="10"/>
       <c r="H120" s="9"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="9"/>
       <c r="G121" s="10"/>
       <c r="H121" s="9"/>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="9"/>
       <c r="G122" s="10"/>
       <c r="H122" s="9"/>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F123" s="9"/>
       <c r="G123" s="10"/>
       <c r="H123" s="9"/>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F124" s="9"/>
       <c r="G124" s="10"/>
       <c r="H124" s="9"/>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F125" s="9"/>
       <c r="G125" s="10"/>
       <c r="H125" s="9"/>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
       <c r="H126" s="9"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F127" s="9"/>
       <c r="G127" s="10"/>
       <c r="H127" s="9"/>
       <c r="I127" s="10"/>
     </row>
-    <row r="128" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F128" s="9"/>
       <c r="G128" s="10"/>
       <c r="H128" s="9"/>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F129" s="9"/>
       <c r="G129" s="10"/>
       <c r="H129" s="9"/>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F130" s="9"/>
       <c r="G130" s="10"/>
       <c r="H130" s="9"/>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F131" s="9"/>
       <c r="G131" s="10"/>
       <c r="H131" s="9"/>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F132" s="9"/>
       <c r="G132" s="10"/>
       <c r="H132" s="9"/>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F133" s="9"/>
       <c r="G133" s="10"/>
       <c r="H133" s="9"/>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F134" s="9"/>
       <c r="G134" s="10"/>
       <c r="H134" s="9"/>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F135" s="9"/>
       <c r="G135" s="10"/>
       <c r="H135" s="9"/>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F136" s="9"/>
       <c r="G136" s="10"/>
       <c r="H136" s="9"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F137" s="9"/>
       <c r="G137" s="10"/>
       <c r="H137" s="9"/>
       <c r="I137" s="10"/>
     </row>
-    <row r="138" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="9"/>
       <c r="G138" s="10"/>
       <c r="H138" s="9"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F139" s="9"/>
       <c r="G139" s="10"/>
       <c r="H139" s="9"/>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F140" s="9"/>
       <c r="G140" s="10"/>
       <c r="H140" s="9"/>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F141" s="9"/>
       <c r="G141" s="10"/>
       <c r="H141" s="9"/>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F142" s="9"/>
       <c r="G142" s="10"/>
       <c r="H142" s="9"/>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F143" s="9"/>
       <c r="G143" s="10"/>
       <c r="H143" s="9"/>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F144" s="9"/>
       <c r="G144" s="10"/>
       <c r="H144" s="9"/>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F145" s="9"/>
       <c r="G145" s="10"/>
       <c r="H145" s="9"/>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F146" s="9"/>
       <c r="G146" s="10"/>
       <c r="H146" s="9"/>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
       <c r="H147" s="9"/>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F148" s="9"/>
       <c r="G148" s="10"/>
       <c r="H148" s="9"/>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F149" s="9"/>
       <c r="G149" s="10"/>
       <c r="H149" s="9"/>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F150" s="9"/>
       <c r="G150" s="10"/>
       <c r="H150" s="9"/>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F151" s="9"/>
       <c r="G151" s="10"/>
       <c r="H151" s="9"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F152" s="9"/>
       <c r="G152" s="10"/>
       <c r="H152" s="9"/>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F153" s="9"/>
       <c r="G153" s="10"/>
       <c r="H153" s="9"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F154" s="9"/>
       <c r="G154" s="10"/>
       <c r="H154" s="9"/>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F155" s="9"/>
       <c r="G155" s="10"/>
       <c r="H155" s="9"/>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F156" s="9"/>
       <c r="G156" s="10"/>
       <c r="H156" s="9"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F157" s="9"/>
       <c r="G157" s="10"/>
       <c r="H157" s="9"/>
       <c r="I157" s="10"/>
     </row>
-    <row r="158" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F158" s="9"/>
       <c r="G158" s="10"/>
       <c r="H158" s="9"/>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F159" s="9"/>
       <c r="G159" s="10"/>
       <c r="H159" s="9"/>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F160" s="9"/>
       <c r="G160" s="10"/>
       <c r="H160" s="9"/>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F161" s="9"/>
       <c r="G161" s="10"/>
       <c r="H161" s="9"/>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F162" s="9"/>
       <c r="G162" s="10"/>
       <c r="H162" s="9"/>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F163" s="9"/>
       <c r="G163" s="10"/>
       <c r="H163" s="9"/>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F164" s="9"/>
       <c r="G164" s="10"/>
       <c r="H164" s="9"/>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F165" s="9"/>
       <c r="G165" s="10"/>
       <c r="H165" s="9"/>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F166" s="9"/>
       <c r="G166" s="10"/>
       <c r="H166" s="9"/>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F167" s="9"/>
       <c r="G167" s="10"/>
       <c r="H167" s="9"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F168" s="9"/>
       <c r="G168" s="10"/>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
     </row>
-    <row r="169" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F169" s="9"/>
       <c r="G169" s="10"/>
       <c r="H169" s="9"/>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F170" s="9"/>
       <c r="G170" s="10"/>
       <c r="H170" s="9"/>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F171" s="9"/>
       <c r="G171" s="10"/>
       <c r="H171" s="9"/>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F172" s="9"/>
       <c r="G172" s="10"/>
       <c r="H172" s="9"/>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F173" s="9"/>
       <c r="G173" s="10"/>
       <c r="H173" s="9"/>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F174" s="9"/>
       <c r="G174" s="10"/>
       <c r="H174" s="9"/>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F175" s="9"/>
       <c r="G175" s="10"/>
       <c r="H175" s="9"/>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F176" s="9"/>
       <c r="G176" s="10"/>
       <c r="H176" s="9"/>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F177" s="9"/>
       <c r="G177" s="10"/>
       <c r="H177" s="9"/>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F178" s="9"/>
       <c r="G178" s="10"/>
       <c r="H178" s="9"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F179" s="9"/>
       <c r="G179" s="10"/>
       <c r="H179" s="9"/>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F180" s="9"/>
       <c r="G180" s="10"/>
       <c r="H180" s="9"/>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F181" s="9"/>
       <c r="G181" s="10"/>
       <c r="H181" s="9"/>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F182" s="9"/>
       <c r="G182" s="10"/>
       <c r="H182" s="9"/>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F183" s="9"/>
       <c r="G183" s="10"/>
       <c r="H183" s="9"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F184" s="9"/>
       <c r="G184" s="10"/>
       <c r="H184" s="9"/>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F185" s="9"/>
       <c r="G185" s="10"/>
       <c r="H185" s="9"/>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F186" s="9"/>
       <c r="G186" s="10"/>
       <c r="H186" s="9"/>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F187" s="9"/>
       <c r="G187" s="10"/>
       <c r="H187" s="9"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F188" s="9"/>
       <c r="G188" s="10"/>
       <c r="H188" s="9"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F189" s="9"/>
       <c r="G189" s="10"/>
       <c r="H189" s="9"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F190" s="9"/>
       <c r="G190" s="10"/>
       <c r="H190" s="9"/>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F191" s="9"/>
       <c r="G191" s="10"/>
       <c r="H191" s="9"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F192" s="9"/>
       <c r="G192" s="10"/>
       <c r="H192" s="9"/>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F193" s="9"/>
       <c r="G193" s="10"/>
       <c r="H193" s="9"/>
       <c r="I193" s="10"/>
     </row>
-    <row r="194" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F194" s="9"/>
       <c r="G194" s="10"/>
       <c r="H194" s="9"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F195" s="9"/>
       <c r="G195" s="10"/>
       <c r="H195" s="9"/>
       <c r="I195" s="10"/>
     </row>
-    <row r="196" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F196" s="9"/>
       <c r="G196" s="10"/>
       <c r="H196" s="9"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F197" s="9"/>
       <c r="G197" s="10"/>
       <c r="H197" s="9"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F198" s="9"/>
       <c r="G198" s="10"/>
       <c r="H198" s="9"/>
       <c r="I198" s="10"/>
     </row>
-    <row r="199" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F199" s="9"/>
       <c r="G199" s="10"/>
       <c r="H199" s="9"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F200" s="9"/>
       <c r="G200" s="10"/>
       <c r="H200" s="9"/>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F201" s="9"/>
       <c r="G201" s="10"/>
       <c r="H201" s="9"/>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F202" s="9"/>
       <c r="G202" s="10"/>
       <c r="H202" s="9"/>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F203" s="9"/>
       <c r="G203" s="10"/>
       <c r="H203" s="9"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F204" s="9"/>
       <c r="G204" s="10"/>
       <c r="H204" s="9"/>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F205" s="9"/>
       <c r="G205" s="10"/>
       <c r="H205" s="9"/>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F206" s="9"/>
       <c r="G206" s="10"/>
       <c r="H206" s="9"/>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F207" s="9"/>
       <c r="G207" s="10"/>
       <c r="H207" s="9"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F208" s="9"/>
       <c r="G208" s="10"/>
       <c r="H208" s="9"/>
       <c r="I208" s="10"/>
     </row>
-    <row r="209" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F209" s="9"/>
       <c r="G209" s="10"/>
       <c r="H209" s="9"/>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F210" s="9"/>
       <c r="G210" s="10"/>
       <c r="H210" s="9"/>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F211" s="9"/>
       <c r="G211" s="10"/>
       <c r="H211" s="9"/>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F212" s="9"/>
       <c r="G212" s="10"/>
       <c r="H212" s="9"/>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F213" s="9"/>
       <c r="G213" s="10"/>
       <c r="H213" s="9"/>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F214" s="9"/>
       <c r="G214" s="10"/>
       <c r="H214" s="9"/>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F215" s="9"/>
       <c r="G215" s="10"/>
       <c r="H215" s="9"/>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F216" s="9"/>
       <c r="G216" s="10"/>
       <c r="H216" s="9"/>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F217" s="9"/>
       <c r="G217" s="10"/>
       <c r="H217" s="9"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F218" s="9"/>
       <c r="G218" s="10"/>
       <c r="H218" s="9"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F219" s="9"/>
       <c r="G219" s="10"/>
       <c r="H219" s="9"/>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F220" s="9"/>
       <c r="G220" s="10"/>
       <c r="H220" s="9"/>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F221" s="9"/>
       <c r="G221" s="10"/>
       <c r="H221" s="9"/>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F222" s="9"/>
       <c r="G222" s="10"/>
       <c r="H222" s="9"/>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F223" s="9"/>
       <c r="G223" s="10"/>
       <c r="H223" s="9"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F224" s="9"/>
       <c r="G224" s="10"/>
       <c r="H224" s="9"/>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F225" s="9"/>
       <c r="G225" s="10"/>
       <c r="H225" s="9"/>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F226" s="9"/>
       <c r="G226" s="10"/>
       <c r="H226" s="9"/>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F227" s="9"/>
       <c r="G227" s="10"/>
       <c r="H227" s="9"/>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F228" s="9"/>
       <c r="G228" s="10"/>
       <c r="H228" s="9"/>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F229" s="9"/>
       <c r="G229" s="10"/>
       <c r="H229" s="9"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F230" s="9"/>
       <c r="G230" s="10"/>
       <c r="H230" s="9"/>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F231" s="9"/>
       <c r="G231" s="10"/>
       <c r="H231" s="9"/>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F232" s="9"/>
       <c r="G232" s="10"/>
       <c r="H232" s="9"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F233" s="9"/>
       <c r="G233" s="10"/>
       <c r="H233" s="9"/>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F234" s="9"/>
       <c r="G234" s="10"/>
       <c r="H234" s="9"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F235" s="9"/>
       <c r="G235" s="10"/>
       <c r="H235" s="9"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F236" s="9"/>
       <c r="G236" s="10"/>
       <c r="H236" s="9"/>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F237" s="9"/>
       <c r="G237" s="10"/>
       <c r="H237" s="9"/>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F238" s="9"/>
       <c r="G238" s="10"/>
       <c r="H238" s="9"/>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F239" s="9"/>
       <c r="G239" s="10"/>
       <c r="H239" s="9"/>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F240" s="9"/>
       <c r="G240" s="10"/>
       <c r="H240" s="9"/>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F241" s="9"/>
       <c r="G241" s="10"/>
       <c r="H241" s="9"/>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F242" s="9"/>
       <c r="G242" s="10"/>
       <c r="H242" s="9"/>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F243" s="9"/>
       <c r="G243" s="10"/>
       <c r="H243" s="9"/>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F244" s="9"/>
       <c r="G244" s="10"/>
       <c r="H244" s="9"/>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F245" s="9"/>
       <c r="G245" s="10"/>
       <c r="H245" s="9"/>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="6:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E97:E184 E92:E95 E88 E78:E79 E76 E65:E66 E61 E55:E59 E53 E45:E51 E33:E34 E26:E27 E21:E22 E15 E11:E12 E5" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5920,23 +5929,23 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="40" customWidth="1"/>
-    <col min="3" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="40" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
     <col min="7" max="7" width="38" style="40" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" customWidth="1"/>
+    <col min="12" max="12" width="35.44140625" customWidth="1"/>
+    <col min="13" max="13" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="40" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="40" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>250</v>
       </c>
@@ -5973,7 +5982,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>259</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>270</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>280</v>
       </c>
@@ -6093,7 +6102,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>280</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>297</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>304</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>308</v>
       </c>
@@ -6202,7 +6211,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>313</v>
       </c>
@@ -6220,7 +6229,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="25"/>
       <c r="I10" s="25" t="s">
         <v>276</v>
@@ -6229,7 +6238,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
         <v>295</v>
@@ -6238,7 +6247,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
         <v>289</v>
@@ -6247,7 +6256,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H13" s="25"/>
       <c r="I13" s="25" t="s">
         <v>296</v>
@@ -6256,10 +6265,10 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" s="29"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
@@ -6267,280 +6276,280 @@
       <c r="L15" s="26"/>
       <c r="M15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="25"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" s="25"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="25"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="25"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="25"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" s="25"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" s="25"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" s="25"/>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" s="25"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" s="25"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" s="25"/>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" s="25"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" s="25"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H50" s="25"/>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H51" s="25"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H52" s="25"/>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H53" s="25"/>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" s="25"/>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H56" s="25"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" s="25"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H58" s="25"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" s="25"/>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H60" s="25"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" s="25"/>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H62" s="25"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H63" s="25"/>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H64" s="25"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" s="25"/>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H66" s="25"/>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H67" s="25"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H69" s="25"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H70" s="25"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" s="25"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H72" s="25"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" s="25"/>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H74" s="25"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" s="25"/>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H76" s="25"/>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" s="25"/>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H78" s="25"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" s="25"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" s="25"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" s="25"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" s="25"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" s="25"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" s="25"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" s="25"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" s="25"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H87" s="25"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" s="25"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" s="25"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" s="25"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" s="25"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" s="25"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" s="25"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" s="25"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" s="25"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" s="25"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="25"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" s="25"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" s="25"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" s="25"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" s="25"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" s="25"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" s="25"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" s="25"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" s="25"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" s="25"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" s="25"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" s="25"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" s="25"/>
     </row>
   </sheetData>
